--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -3,7)</t>
+          <t>(318294931, Shalev  Afanasenko: -10,0)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -5,-1)</t>
+          <t>(305487936, Avihai  Kipnis: -7,9)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -8,-1)</t>
+          <t>(313227928, Aviv  Levi: -1,-6)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -1,-8)</t>
+          <t>(205807308, Sariel  Basis: 5,4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 7,8)</t>
+          <t>(315891549, Raz  Halaby: 2,9)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -3,-6)</t>
+          <t>(315060103, Dan  Mshelh: 4,8)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -8,8)</t>
+          <t>(313925141, Elad   Amer: -5,3)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 639.1665096918218</t>
+          <t>cost: 342.59875744761035</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 73.45235852740313</t>
+          <t>time: 45.37125106394434</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -10,0)</t>
+          <t>(318294931, Shalev  Afanasenko: -7,-7)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -7,9)</t>
+          <t>(305487936, Avihai  Kipnis: 0,-3)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -1,-6)</t>
+          <t>(313227928, Aviv  Levi: -8,0)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 5,4)</t>
+          <t>(205807308, Sariel  Basis: -3,-7)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 2,9)</t>
+          <t>(315891549, Raz  Halaby: -2,-1)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 4,8)</t>
+          <t>(315060103, Dan  Mshelh: -6,-9)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -5,3)</t>
+          <t>(313925141, Elad   Amer: 7,1)</t>
         </is>
       </c>
     </row>
@@ -468,18 +468,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 342.59875744761035</t>
+          <t>cost: 373.8516758478224</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 45.37125106394434</t>
+          <t>time: 49.835953692546056</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,-7)</t>
+          <t>(318294931, Shalev  Afanasenko: -2,-9)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 0,-3)</t>
+          <t>(305487936, Avihai  Kipnis: 0,8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -8,0)</t>
+          <t>(313227928, Aviv  Levi: 6,5)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -3,-7)</t>
+          <t>(205807308, Sariel  Basis: 2,4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -2,-1)</t>
+          <t>(315891549, Raz  Halaby: 2,-8)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -6,-9)</t>
+          <t>(315060103, Dan  Mshelh: -10,-5)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 7,1)</t>
+          <t>(313925141, Elad   Amer: -1,6)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 373.8516758478224</t>
+          <t>cost: 475.6196525797319</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 49.835953692546056</t>
+          <t>time: 64.37423608281884</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -10,0)</t>
+          <t>(318294931, Shalev  Afanasenko: -4,4)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -7,9)</t>
+          <t>(305487936, Avihai  Kipnis: -5,3)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -1,-6)</t>
+          <t>(313227928, Aviv  Levi: 4,6)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 5,4)</t>
+          <t>(205807308, Sariel  Basis: -7,3)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 2,9)</t>
+          <t>(315891549, Raz  Halaby: -7,0)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 4,8)</t>
+          <t>(315060103, Dan  Mshelh: 4,-1)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -5,3)</t>
+          <t>(313925141, Elad   Amer: -6,8)</t>
         </is>
       </c>
     </row>
@@ -468,18 +468,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 342.59875744761035</t>
+          <t>cost: 355.1033350064639</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 45.37125106394434</t>
+          <t>time: 47.1576192866377</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -4,4)</t>
+          <t>(318294931, Shalev  Afanasenko: 3,9)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -5,3)</t>
+          <t>(305487936, Avihai  Kipnis: -4,2)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 4,6)</t>
+          <t>(313227928, Aviv  Levi: 7,-8)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -7,3)</t>
+          <t>(205807308, Sariel  Basis: -4,3)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -7,0)</t>
+          <t>(315891549, Raz  Halaby: 8,-5)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 4,-1)</t>
+          <t>(315060103, Dan  Mshelh: -4,3)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -6,8)</t>
+          <t>(313925141, Elad   Amer: -1,-5)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 355.1033350064639</t>
+          <t>cost: 657.4515679530903</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 47.1576192866377</t>
+          <t>time: 90.35022399329858</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 3,9)</t>
+          <t>(318294931, Shalev  Afanasenko: 3,-9)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -4,2)</t>
+          <t>(305487936, Avihai  Kipnis: 8,-1)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 7,-8)</t>
+          <t>(313227928, Aviv  Levi: 9,-1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -4,3)</t>
+          <t>(205807308, Sariel  Basis: 2,8)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 8,-5)</t>
+          <t>(315891549, Raz  Halaby: 3,-7)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -4,3)</t>
+          <t>(315060103, Dan  Mshelh: -3,-6)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -1,-5)</t>
+          <t>(313925141, Elad   Amer: 0,-1)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 657.4515679530903</t>
+          <t>cost: 453.81152608925026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 90.35022399329858</t>
+          <t>time: 61.25878944132147</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: 3,-9)</t>
+          <t>(318294931, Shalev  Afanasenko: -7,6)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 8,-1)</t>
+          <t>(305487936, Avihai  Kipnis: -9,-4)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 9,-1)</t>
+          <t>(313227928, Aviv  Levi: 7,6)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 2,8)</t>
+          <t>(205807308, Sariel  Basis: 0,4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 3,-7)</t>
+          <t>(315891549, Raz  Halaby: -8,-2)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -3,-6)</t>
+          <t>(315060103, Dan  Mshelh: 6,1)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 0,-1)</t>
+          <t>(313925141, Elad   Amer: 1,8)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 453.81152608925026</t>
+          <t>cost: 605.0358990268988</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 61.25878944132147</t>
+          <t>time: 82.862271289557</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318294931, Shalev  Afanasenko: -7,6)</t>
+          <t>(305487936, Avihai  Kipnis: 4,4)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -9,-4)</t>
+          <t>(313227928, Aviv  Levi: -7,-8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 7,6)</t>
+          <t>(205807308, Sariel  Basis: 7,-4)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 0,4)</t>
+          <t>(315891549, Raz  Halaby: 1,7)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -8,-2)</t>
+          <t>(315060103, Dan  Mshelh: 0,-3)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 6,1)</t>
+          <t>(313925141, Elad   Amer: -8,2)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 1,8)</t>
+          <t>(326598423, Ron Cohen: -1,-6)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 605.0358990268988</t>
+          <t>cost: 419.9321605734631</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 82.862271289557</t>
+          <t>time: 56.4188800819233</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 4,4)</t>
+          <t>(305487936, Avihai  Kipnis: -5,-1)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -7,-8)</t>
+          <t>(313227928, Aviv  Levi: 2,6)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 7,-4)</t>
+          <t>(205807308, Sariel  Basis: 7,-1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 1,7)</t>
+          <t>(315891549, Raz  Halaby: -10,-4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 0,-3)</t>
+          <t>(315060103, Dan  Mshelh: -3,4)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -8,2)</t>
+          <t>(313925141, Elad   Amer: -1,-7)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: -1,-6)</t>
+          <t>(326598423, Ron Cohen: -4,-2)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 419.9321605734631</t>
+          <t>cost: 431.2063753783772</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 56.4188800819233</t>
+          <t>time: 58.02948219691102</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 4,4)</t>
+          <t>(305487936, Avihai  Kipnis: 8,8)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: -7,-8)</t>
+          <t>(313227928, Aviv  Levi: 9,5)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 7,-4)</t>
+          <t>(205807308, Sariel  Basis: -10,-1)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 1,7)</t>
+          <t>(315891549, Raz  Halaby: 7,-2)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 0,-3)</t>
+          <t>(315060103, Dan  Mshelh: 2,-6)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -8,2)</t>
+          <t>(313925141, Elad   Amer: -2,3)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: -1,-6)</t>
+          <t>(326598423, Ron Cohen: 6,5)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 419.9321605734631</t>
+          <t>cost: 454.1739431638143</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 56.4188800819233</t>
+          <t>time: 61.31056330911633</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 8,8)</t>
+          <t>(305487936, Avihai  Kipnis: 6,0)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 9,5)</t>
+          <t>(313227928, Aviv  Levi: 1,8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -10,-1)</t>
+          <t>(205807308, Sariel  Basis: 5,4)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 7,-2)</t>
+          <t>(315891549, Raz  Halaby: 0,4)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 2,-6)</t>
+          <t>(315060103, Dan  Mshelh: 2,6)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -2,3)</t>
+          <t>(313925141, Elad   Amer: 2,-3)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 6,5)</t>
+          <t>(326598423, Ron Cohen: 3,8)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 454.1739431638143</t>
+          <t>cost: 415.9898314738982</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 61.31056330911633</t>
+          <t>time: 55.855690210556894</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: 6,0)</t>
+          <t>(313227928, Aviv  Levi: 1,-10)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 1,8)</t>
+          <t>(205807308, Sariel  Basis: -2,-8)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: 5,4)</t>
+          <t>(315891549, Raz  Halaby: -10,5)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: 0,4)</t>
+          <t>(326598423, Ron Cohen: -3,8)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: 2,6)</t>
+          <t>(313925141, Elad   Amer: -6,4)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: 2,-3)</t>
+          <t>(315060103, Dan  Mshelh: -6,1)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: 3,8)</t>
+          <t>(305487936, Avihai  Kipnis: -4,1)</t>
         </is>
       </c>
     </row>
@@ -468,14 +468,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 415.9898314738982</t>
+          <t>cost: 344.2600523786747</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 55.855690210556894</t>
+          <t>time: 45.60857891123924</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(313227928, Aviv  Levi: 1,-10)</t>
+          <t>(205807308, Sariel  Basis: -10,-8)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -2,-8)</t>
+          <t>(316028364, Sami  Castro: -9,-4)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -10,5)</t>
+          <t>(318869187, Soaad  Leibovich: -8,-6)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(326598423, Ron Cohen: -3,8)</t>
+          <t>(308073899, Anan  Kirshenbaum: -6,-7)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(313925141, Elad   Amer: -6,4)</t>
+          <t>(315891549, Raz  Halaby: -4,-5)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -6,1)</t>
+          <t>(302962915, Asher  Odeh: -3,-7)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>(305487936, Avihai  Kipnis: -4,1)</t>
+          <t>(311177802, Christina  Uksusman: -2,-8)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>(326598423, Ron Cohen: 3,-10)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>(312049950, Molham  Peretz: 2,-6)</t>
         </is>
       </c>
     </row>
@@ -468,14 +478,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 344.2600523786747</t>
+          <t>cost: 292.88269269416344</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 45.60857891123924</t>
+          <t>time: 38.2689560991662</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,47 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(205807308, Sariel  Basis: -10,-8)</t>
+          <t>(318869187, Soaad  Leibovich: -8,-7)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(316028364, Sami  Castro: -9,-4)</t>
+          <t>(315060103, Dan  Mshelh: -8,-6)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -8,-6)</t>
+          <t>(311177802, Christina  Uksusman: -5,-10)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>(308073899, Anan  Kirshenbaum: -6,-7)</t>
+          <t>(206532695, Matan Vakrat: -3,-9)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>(315891549, Raz  Halaby: -4,-5)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>(302962915, Asher  Odeh: -3,-7)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>(311177802, Christina  Uksusman: -2,-8)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>(326598423, Ron Cohen: 3,-10)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>(312049950, Molham  Peretz: 2,-6)</t>
+          <t>(206532695, Matan Vakrat: -3,-9)</t>
         </is>
       </c>
     </row>
@@ -478,14 +458,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 292.88269269416344</t>
+          <t>cost: 172.23422500532968</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 38.2689560991662</t>
+          <t>time: 21.0334607150471</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,48 +424,412 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>(318869187, Soaad  Leibovich: -8,-7)</t>
+          <t>path id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>(315060103, Dan  Mshelh: -8,-6)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>(311177802, Christina  Uksusman: -5,-10)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>(206532695, Matan Vakrat: -3,-9)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>(206532695, Matan Vakrat: -3,-9)</t>
+          <t>myPath</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>car id: 124</t>
+          <t>car.ID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cost: 172.23422500532968</t>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mySchool</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>time: 21.0334607150471</t>
+          <t>nChildren</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>timeOfStart</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tal </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Asulin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anan </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kirshenbaum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8,7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>703.4164365270716</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Or </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Leder</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>705.3118511021004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cohen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>707.6052807932523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sariel </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Basis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>709.7853740202406</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raz </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Halaby</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>713.3434290267688</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Matan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vakrat</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>715.6710337503818</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eyal </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sofer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>723.2096597108002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>725.0104813010288</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25.01048130102891</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -489,22 +489,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tal </t>
+          <t xml:space="preserve">Eyal </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asulin</t>
+          <t>Sofer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-9,8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -526,22 +526,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anan </t>
+          <t xml:space="preserve">Or </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kirshenbaum</t>
+          <t>Leder</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>703.4164365270716</t>
+          <t>703.0</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9,6</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>705.3118511021004</t>
+          <t>703.0</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>Mshelh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>707.6052807932523</t>
+          <t>706.0</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sariel </t>
+          <t xml:space="preserve">Elad  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Basis</t>
+          <t>Amer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>709.7853740202406</t>
+          <t>712.0</t>
         </is>
       </c>
     </row>
@@ -674,22 +674,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raz </t>
+          <t xml:space="preserve">Shalev </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Halaby</t>
+          <t>Afanasenko</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>713.3434290267688</t>
+          <t>720.0</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>715.6710337503818</t>
+          <t>725.0</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eyal </t>
+          <t xml:space="preserve">Soaad </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sofer</t>
+          <t>Leibovich</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>723.2096597108002</t>
+          <t>730.0</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>725.0104813010288</t>
+          <t>735.0</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25.01048130102891</t>
+          <t>35.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -489,22 +489,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eyal </t>
+          <t xml:space="preserve">Raz </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sofer</t>
+          <t>Halaby</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-2,-3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -526,22 +526,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Or </t>
+          <t xml:space="preserve">Tal </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leder</t>
+          <t>Asulin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-3,-2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>703.0</t>
+          <t>702.0</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Or </t>
+          <t xml:space="preserve">Eyal </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leder</t>
+          <t>Sofer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-4,-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>703.0</t>
+          <t>704.0</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mshelh</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-5,-3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elad  </t>
+          <t xml:space="preserve">Asher </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amer</t>
+          <t>Odeh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-6,-3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>712.0</t>
+          <t>708.0</t>
         </is>
       </c>
     </row>
@@ -674,22 +674,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shalev </t>
+          <t xml:space="preserve">Sami </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Afanasenko</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-7,-1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>720.0</t>
+          <t>711.0</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Matan</t>
+          <t xml:space="preserve">Elad  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vakrat</t>
+          <t>Amer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -736,34 +736,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>725.0</t>
+          <t>719.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soaad </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Leibovich</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,3</t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -773,63 +768,31 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>730.0</t>
+          <t>724.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>735.0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>35.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>7:00:00</t>
         </is>
       </c>
     </row>
@@ -489,32 +489,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raz </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Halaby</t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2,-3</t>
+          <t>-9.64,-6.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>7:00:00</t>
         </is>
       </c>
     </row>
@@ -526,32 +526,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tal </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Asulin</t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-3,-2</t>
+          <t>-5.57,-7.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>702.0</t>
+          <t>7:05:00</t>
         </is>
       </c>
     </row>
@@ -563,32 +563,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eyal </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sofer</t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-4,-2</t>
+          <t>-3.64,-8.82</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>704.0</t>
+          <t>7:09:00</t>
         </is>
       </c>
     </row>
@@ -600,32 +600,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-5,-3</t>
+          <t>-0.28,-7.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>706.0</t>
+          <t>7:14:00</t>
         </is>
       </c>
     </row>
@@ -637,32 +637,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asher </t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Odeh</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-6,-3</t>
+          <t>-0.66,-6.1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>708.0</t>
+          <t>7:16:00</t>
         </is>
       </c>
     </row>
@@ -679,27 +679,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sami </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7,-1</t>
+          <t>-0.44,-4.45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>711.0</t>
+          <t>7:19:00</t>
         </is>
       </c>
     </row>
@@ -711,32 +711,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elad  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Amer</t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0.69,-2.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>719.0</t>
+          <t>7:21:00</t>
         </is>
       </c>
     </row>
@@ -761,14 +761,19 @@
           <t>mySchool</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>724.0</t>
+          <t>7:24:00</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.64,-6.26</t>
+          <t>9.23,-4.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -526,32 +526,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5.57,-7.62</t>
+          <t>7.2,-4.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:03:00</t>
         </is>
       </c>
     </row>
@@ -563,32 +563,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-3.64,-8.82</t>
+          <t>3.29,-9.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
     </row>
@@ -600,202 +600,91 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.28,-7.67</t>
+          <t>4.1,-9.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.66,-6.1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:16:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankie  </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flavia  </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-0.44,-4.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Cyrus(mother): 0522363358</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>7:19:00</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fay  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emilee  </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-0.69,-2.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sheri(mother): 0516797453</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>7:21:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:24:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,32 +489,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.64,-6.26</t>
+          <t>-9.16,-3.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>7:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -526,32 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5.57,-7.62</t>
+          <t>-7.38,-6.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>7:05:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -563,32 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-3.64,-8.82</t>
+          <t>-3.16,-7.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:11:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -600,32 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.28,-7.67</t>
+          <t>-0.99,-5.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:15:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -637,32 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.66,-6.1</t>
+          <t>-4.17,-3.8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:16:00</t>
+          <t>7:19:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -674,32 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frankie  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flavia  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.44,-4.45</t>
+          <t>-2.87,-2.03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cyrus(mother): 0522363358</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:19:00</t>
+          <t>7:23:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -711,32 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.69,-2.65</t>
+          <t>-3.08,-1.04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:25:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -773,7 +808,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:24:00</t>
+          <t>7:30:00</t>
         </is>
       </c>
     </row>
@@ -797,7 +832,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.16,-3.53</t>
+          <t>3.37,7.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>42.0</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Collette  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Billi  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.38,-6.34</t>
+          <t>6.19,7.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Elias(mother): 0578741979</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>37.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-3.16,-7.95</t>
+          <t>9.32,9.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:11:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>32.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.99,-5.37</t>
+          <t>9.63,4.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:15:00</t>
+          <t>7:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.17,-3.8</t>
+          <t>9.71,4.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:19:00</t>
+          <t>7:18:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-2.87,-2.03</t>
+          <t>8.81,2.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:21:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -741,98 +741,140 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.08,-1.04</t>
+          <t>9.6,-1.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:25:00</t>
+          <t>7:28:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6.54,0.52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:34:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7:42:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30.0</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>42.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.37,7.62</t>
+          <t>7.33,-4.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>28.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.19,7.48</t>
+          <t>6.22,-0.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:06:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.32,9.44</t>
+          <t>9.89,-0.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Frankie  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Flavia  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.63,4.02</t>
+          <t>8.79,0.28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Cyrus(mother): 0522363358</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:17:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.71,4.53</t>
+          <t>5.04,3.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:18:00</t>
+          <t>7:19:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -699,182 +699,98 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.81,2.38</t>
+          <t>3.13,1.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:23:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.6,-1.85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>7:28:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>14.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanine  </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janee  </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.54,0.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Teresa(mother): 0517627420</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:34:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>8.0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:42:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>42.0</t>
+          <t>28.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.37,7.62</t>
+          <t>-2.63,7.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Collette  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Billi  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.19,7.48</t>
+          <t>-9.76,7.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elias(mother): 0578741979</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:08:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.32,9.44</t>
+          <t>-6.35,3.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:14:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.63,4.02</t>
+          <t>-7.76,-1.4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:17:00</t>
+          <t>7:20:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.71,4.53</t>
+          <t>-4.33,0.85</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:18:00</t>
+          <t>7:27:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.81,2.38</t>
+          <t>-4.89,2.74</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:29:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -741,37 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.6,-1.85</t>
+          <t>-5.03,3.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:28:00</t>
+          <t>7:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -783,37 +783,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.54,0.52</t>
+          <t>-3.01,3.2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:34:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:42:00</t>
+          <t>7:38:00</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marni  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanika  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.63,7.34</t>
+          <t>0.42,9.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lady(mother): 0560804012</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.76,7.61</t>
+          <t>-5.19,6.9</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:08:00</t>
+          <t>7:09:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -573,32 +573,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randolph  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bridgette  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.35,3.21</t>
+          <t>-6.65,7.8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lenny(father): 0505536740</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:14:00</t>
+          <t>7:12:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-7.76,-1.4</t>
+          <t>-8.38,6.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:15:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.33,0.85</t>
+          <t>-9.9,3.16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:27:00</t>
+          <t>7:20:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-4.89,2.74</t>
+          <t>-7.85,2.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:29:00</t>
+          <t>7:23:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -741,140 +741,98 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.03,3.47</t>
+          <t>-6.03,3.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:26:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.01,3.2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:33:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>5.0</t>
+          <t>7:36:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:38:00</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>38.0</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.42,9.67</t>
+          <t>-6.44,9.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Fay  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Emilee  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5.19,6.9</t>
+          <t>-8.3,6.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Sheri(mother): 0516797453</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:09:00</t>
+          <t>7:05:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.65,7.8</t>
+          <t>-7.84,3.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:12:00</t>
+          <t>7:10:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Corene  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Myra  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.38,6.18</t>
+          <t>-7.45,3.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Georgie(mother): 0544823581</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:15:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Britta  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Jamel  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9.9,3.16</t>
+          <t>-5.94,3.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Albertine(father): 0574981040</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:20:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -699,37 +699,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Nubia  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Royce  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.85,2.56</t>
+          <t>-3.23,2.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Augustus(father): 0517389040</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -741,98 +741,140 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-6.03,3.13</t>
+          <t>-2.97,1.58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:26:00</t>
+          <t>7:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Demetra  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Francene  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3.45,-0.28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Dorian(mother): 0534328089</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:36:00</t>
+          <t>7:22:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7:27:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>36.0</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t xml:space="preserve">Alexia  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t xml:space="preserve">Ramonita  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.44,9.6</t>
+          <t>3.79,9.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Han(father): 0567537032</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-8.3,6.81</t>
+          <t>8.17,5.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:05:00</t>
+          <t>7:08:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wyatt  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Willette  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-7.84,3.24</t>
+          <t>6.52,3.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Antionette(father): 0557331799</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corene  </t>
+          <t xml:space="preserve">Elwanda  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Myra  </t>
+          <t xml:space="preserve">Cassy  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-7.45,3.53</t>
+          <t>3.51,5.46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Georgie(mother): 0544823581</t>
+          <t>Tamisha(mother): 0550693864</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:11:00</t>
+          <t>7:16:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Britta  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamel  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-5.94,3.44</t>
+          <t>-0.39,3.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Albertine(father): 0574981040</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:22:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -699,32 +699,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nubia  </t>
+          <t xml:space="preserve">Francisca  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Royce  </t>
+          <t xml:space="preserve">Stevie  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-3.23,2.78</t>
+          <t>-0.04,2.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Augustus(father): 0517389040</t>
+          <t>Bernardine(mother): 0561339273</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:17:00</t>
+          <t>7:23:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -741,37 +741,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.97,1.58</t>
+          <t>3.02,0.7</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:19:00</t>
+          <t>7:28:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -783,37 +783,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demetra  </t>
+          <t xml:space="preserve">Randolph  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francene  </t>
+          <t xml:space="preserve">Bridgette  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.45,-0.28</t>
+          <t>1.12,-0.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dorian(mother): 0534328089</t>
+          <t>Lenny(father): 0505536740</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:22:00</t>
+          <t>7:31:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:27:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>32.0</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:12:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:16:00</t>
+          <t>7:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:21:00</t>
+          <t>7:23:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:24:00</t>
+          <t>7:25:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:30:00</t>
+          <t>7:31:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:32:00</t>
+          <t>7:33:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:36:00</t>
+          <t>7:38:00</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.58,-7.72</t>
+          <t>9.54,-5.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>45.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marni  </t>
+          <t xml:space="preserve">Kandis  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanika  </t>
+          <t xml:space="preserve">Zulma  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.14,-6.8</t>
+          <t>5.62,-3.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lady(mother): 0560804012</t>
+          <t>Kylie(mother): 0575413269</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:06:00</t>
+          <t>7:07:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elwanda  </t>
+          <t xml:space="preserve">Trudie  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cassy  </t>
+          <t xml:space="preserve">Fleta  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.45,-3.62</t>
+          <t>7.8,0.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tamisha(mother): 0550693864</t>
+          <t>Anneliese(father): 0548973345</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:10:00</t>
+          <t>7:13:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>32.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.09,-3.01</t>
+          <t>3.6,7.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Bernardine(mother): 0576270618</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:12:00</t>
+          <t>7:24:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
@@ -657,37 +657,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fay  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emilee  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-3.26,-1.18</t>
+          <t>-5.31,3.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sheri(mother): 0516797453</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:18:00</t>
+          <t>7:38:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:45:00</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>45.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.54,-5.67</t>
+          <t>-4.91,8.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kandis  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zulma  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.62,-3.07</t>
+          <t>-7.59,-1.1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kylie(mother): 0575413269</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:07:00</t>
+          <t>7:11:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>33.0</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.8,0.51</t>
+          <t>-8.8,-1.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t xml:space="preserve">Jeanine  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t xml:space="preserve">Janee  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.6,7.13</t>
+          <t>-6.74,-4.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0576270618</t>
+          <t>Teresa(mother): 0517627420</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:24:00</t>
+          <t>7:18:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>26.0</t>
         </is>
       </c>
     </row>
@@ -657,98 +657,224 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patti  </t>
+          <t xml:space="preserve">Lorinda  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavenia  </t>
+          <t xml:space="preserve">Tyron  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-5.31,3.0</t>
+          <t>-8.25,-7.96</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jennell(mother): 0503029941</t>
+          <t>Teresa(grandmother): 0558587699</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:38:00</t>
+          <t>7:23:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>21.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ironiah</t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mySchool</t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5.36,-1.51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shir(secretary): 0523345098</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:45:00</t>
+          <t>7:34:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fay  </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emilee  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-3.66,-1.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sheri(mother): 0516797453</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7:36:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cohen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-0.94,2.1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bernardine(mother): 0576270618</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7:41:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ironiah</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mySchool</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Shir(secretary): 0523345098</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7:44:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>45.0</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>44.0</t>
         </is>
       </c>
     </row>

--- a/Groups2.xlsx
+++ b/Groups2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francisca  </t>
+          <t xml:space="preserve">Ema  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stevie  </t>
+          <t xml:space="preserve">Ardell  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.91,8.86</t>
+          <t>4,-7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bernardine(mother): 0561339273</t>
+          <t>Carley(grandmother): 0533587167</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -531,37 +531,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ema  </t>
+          <t xml:space="preserve">Patti  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ardell  </t>
+          <t xml:space="preserve">Lavenia  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.59,-1.1</t>
+          <t>5,-6</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Carley(grandmother): 0533587167</t>
+          <t>Jennell(mother): 0503029941</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7:11:00</t>
+          <t>7:02:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -573,37 +573,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trudie  </t>
+          <t xml:space="preserve">Letha  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleta  </t>
+          <t xml:space="preserve">Stephenie  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-8.8,-1.81</t>
+          <t>5,-5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Anneliese(father): 0548973345</t>
+          <t>Sibyl(mother): 0567328221</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:13:00</t>
+          <t>7:04:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -615,37 +615,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeanine  </t>
+          <t xml:space="preserve">Wyatt  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janee  </t>
+          <t xml:space="preserve">Willette  </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.74,-4.84</t>
+          <t>6,-4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Teresa(mother): 0517627420</t>
+          <t>Antionette(father): 0557331799</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7:18:00</t>
+          <t>7:06:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -657,224 +657,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorinda  </t>
+          <t xml:space="preserve">Marni  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tyron  </t>
+          <t xml:space="preserve">Shanika  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-8.25,-7.96</t>
+          <t>7,-4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Teresa(grandmother): 0558587699</t>
+          <t>Lady(mother): 0560804012</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7:23:00</t>
+          <t>7:08:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Letha  </t>
+          <t>Ironiah</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stephenie  </t>
+          <t>mySchool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.36,-1.51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sibyl(mother): 0567328221</t>
+          <t>Shir(secretary): 0523345098</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7:34:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10.0</t>
+          <t>7:17:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fay  </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emilee  </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3.66,-1.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sheri(mother): 0516797453</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>7:36:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>8.0</t>
+          <t>39.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Cohen</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-0.94,2.1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bernardine(mother): 0576270618</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>7:41:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ironiah</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>mySchool</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Shir(secretary): 0523345098</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>7:44:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>44.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
